--- a/biology/Médecine/Rééducation_orthophonique_(revue)/Rééducation_orthophonique_(revue).xlsx
+++ b/biology/Médecine/Rééducation_orthophonique_(revue)/Rééducation_orthophonique_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9%C3%A9ducation_orthophonique_(revue)</t>
+          <t>Rééducation_orthophonique_(revue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rééducation orthophonique est une revue scientifique française consacrée à l'orthophonie, créée en 1962 par Suzanne Borel-Maisonny.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9%C3%A9ducation_orthophonique_(revue)</t>
+          <t>Rééducation_orthophonique_(revue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1962 par Suzanne Borel-Maisonny, et éditée initialement par l’Association pour la rééducation de la parole, du langage oral et écrit et de la voix (ARPLOEV), Rééducation orthophonique a joué un rôle fondamental[réf. nécessaire] comme vecteur d'identification, de référence et de développement de l'orthophonie en France.
 Sa fondatrice désirait en faire le point de rencontre des orthophonistes avec tous ceux qui sont appelés à être concernés par la rééducation orthophonique : médecins, psychologues, enseignants, acteurs sociaux ou parents. Elle assignait à cette revue scientifique et clinique une mission d'information pour la prévention des troubles de la voix, de la parole, du langage oral et écrit. Cent quatre-vingt numéros ont ainsi été publiés jusqu'en décembre 1994.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9%C3%A9ducation_orthophonique_(revue)</t>
+          <t>Rééducation_orthophonique_(revue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La nouvelle série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1997, Rééducation orthophonique propose des numéros thématiques. La rédaction en est confiée à un praticien pour établir la synthèse des connaissances actuelles dans le domaine étudié.
 </t>
